--- a/automation/in.xlsx
+++ b/automation/in.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="27">
   <si>
     <t>conventional</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>,g2,avg</t>
+  </si>
+  <si>
+    <t>,g3,avg</t>
+  </si>
+  <si>
+    <t>,g5,avg</t>
+  </si>
+  <si>
+    <t>,g2,wei</t>
+  </si>
+  <si>
+    <t>,g3,wei</t>
+  </si>
+  <si>
+    <t>,g5,wei</t>
+  </si>
+  <si>
+    <t>conventional,g2</t>
+  </si>
+  <si>
+    <t>L1,avg</t>
   </si>
 </sst>
 </file>
@@ -401,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:XFD32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +437,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1">
         <v>5</v>
@@ -436,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -450,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -464,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -478,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -492,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -506,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -520,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -534,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -548,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -562,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -576,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -590,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -604,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -618,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -632,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -640,16 +661,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,7 +681,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -674,7 +695,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -688,7 +709,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>40</v>
@@ -702,7 +723,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>40</v>
@@ -716,7 +737,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -730,7 +751,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -744,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -758,7 +779,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -772,7 +793,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -786,7 +807,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -800,7 +821,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>40</v>
@@ -814,7 +835,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>40</v>
@@ -828,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -842,7 +863,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>40</v>
@@ -856,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -864,19 +885,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,7 +908,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -907,7 +925,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -924,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -941,7 +959,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -958,7 +976,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -975,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -992,7 +1010,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1009,7 +1027,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -1026,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -1043,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -1060,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1077,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -1094,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1111,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -1128,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -1136,19 +1154,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>40</v>
@@ -1179,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>40</v>
@@ -1196,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>40</v>
@@ -1213,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>40</v>
@@ -1230,7 +1248,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>40</v>
@@ -1247,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -1264,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>40</v>
@@ -1281,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57">
         <v>40</v>
@@ -1298,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>40</v>
@@ -1315,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>40</v>
@@ -1332,7 +1350,7 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>40</v>
@@ -1349,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>40</v>
@@ -1366,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62">
         <v>40</v>
@@ -1383,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>40</v>
@@ -1400,9 +1418,2746 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
         <v>14</v>
       </c>
-      <c r="E64">
+      <c r="E65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>40</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>40</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>40</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>40</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>40</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>40</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>40</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>40</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120">
+        <v>40</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121">
+        <v>40</v>
+      </c>
+      <c r="C121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123">
+        <v>40</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124">
+        <v>40</v>
+      </c>
+      <c r="C124" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
+        <v>21</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127">
+        <v>40</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>40</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129">
+        <v>40</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146">
+        <v>40</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>18</v>
+      </c>
+      <c r="B147">
+        <v>40</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148">
+        <v>40</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>40</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>18</v>
+      </c>
+      <c r="B150">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>18</v>
+      </c>
+      <c r="B151">
+        <v>40</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
+      </c>
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153">
+        <v>40</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154">
+        <v>40</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>40</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>40</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>40</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>40</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>40</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>40</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161">
+        <v>40</v>
+      </c>
+      <c r="C161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>23</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178">
+        <v>40</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>40</v>
+      </c>
+      <c r="C179" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>40</v>
+      </c>
+      <c r="C180" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181">
+        <v>40</v>
+      </c>
+      <c r="C181" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182">
+        <v>40</v>
+      </c>
+      <c r="C182" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>40</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187">
+        <v>40</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188">
+        <v>40</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189">
+        <v>40</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190">
+        <v>40</v>
+      </c>
+      <c r="C190" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191">
+        <v>40</v>
+      </c>
+      <c r="C191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192">
+        <v>40</v>
+      </c>
+      <c r="C192" t="s">
+        <v>23</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193">
+        <v>40</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210">
+        <v>40</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211">
+        <v>40</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+      <c r="E211">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212">
+        <v>40</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213">
+        <v>40</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214">
+        <v>40</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215">
+        <v>40</v>
+      </c>
+      <c r="C215" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216">
+        <v>40</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217">
+        <v>40</v>
+      </c>
+      <c r="C217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218">
+        <v>40</v>
+      </c>
+      <c r="C218" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219">
+        <v>40</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220">
+        <v>40</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>10</v>
+      </c>
+      <c r="E220">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221">
+        <v>40</v>
+      </c>
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+      <c r="E221">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222">
+        <v>40</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>18</v>
+      </c>
+      <c r="B223">
+        <v>40</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>18</v>
+      </c>
+      <c r="B224">
+        <v>40</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225">
+        <v>40</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225">
         <v>40</v>
       </c>
     </row>

--- a/automation/in.xlsx
+++ b/automation/in.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Histogram_of_Color_Advancements\automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="63">
   <si>
     <t>conventional</t>
   </si>
@@ -105,6 +100,114 @@
   </si>
   <si>
     <t>L1,avg</t>
+  </si>
+  <si>
+    <t>L2,avg</t>
+  </si>
+  <si>
+    <t>Linf,avg</t>
+  </si>
+  <si>
+    <t>cosine,avg</t>
+  </si>
+  <si>
+    <t>correlation,avg</t>
+  </si>
+  <si>
+    <t>chi-square,avg</t>
+  </si>
+  <si>
+    <t>bhattacharyya,avg</t>
+  </si>
+  <si>
+    <t>kl-divergance,avg</t>
+  </si>
+  <si>
+    <t>diffusion,avg</t>
+  </si>
+  <si>
+    <t>match,avg</t>
+  </si>
+  <si>
+    <t>jeffry div,avg</t>
+  </si>
+  <si>
+    <t>kolmogorov smirnov,avg</t>
+  </si>
+  <si>
+    <t>cramer von mises,avg</t>
+  </si>
+  <si>
+    <t>quadratic,avg</t>
+  </si>
+  <si>
+    <t>quadratic-chi,avg</t>
+  </si>
+  <si>
+    <t>emd hat,avg</t>
+  </si>
+  <si>
+    <t>clustering,g2</t>
+  </si>
+  <si>
+    <t>conventional,g3</t>
+  </si>
+  <si>
+    <t>clustering,g3</t>
+  </si>
+  <si>
+    <t>conventional,g5</t>
+  </si>
+  <si>
+    <t>clustering,g5</t>
+  </si>
+  <si>
+    <t>L1,wei</t>
+  </si>
+  <si>
+    <t>L2,wei</t>
+  </si>
+  <si>
+    <t>Linf,wei</t>
+  </si>
+  <si>
+    <t>cosine,wei</t>
+  </si>
+  <si>
+    <t>correlation,wei</t>
+  </si>
+  <si>
+    <t>chi-square,wei</t>
+  </si>
+  <si>
+    <t>bhattacharyya,wei</t>
+  </si>
+  <si>
+    <t>kl-divergance,wei</t>
+  </si>
+  <si>
+    <t>diffusion,wei</t>
+  </si>
+  <si>
+    <t>match,wei</t>
+  </si>
+  <si>
+    <t>jeffry div,wei</t>
+  </si>
+  <si>
+    <t>kolmogorov smirnov,wei</t>
+  </si>
+  <si>
+    <t>cramer von mises,wei</t>
+  </si>
+  <si>
+    <t>quadratic,wei</t>
+  </si>
+  <si>
+    <t>quadratic-chi,wei</t>
+  </si>
+  <si>
+    <t>emd hat,wei</t>
   </si>
 </sst>
 </file>
@@ -414,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,28 +525,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="D422" sqref="D422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E1">
         <v>5</v>
@@ -457,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -471,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -485,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -499,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -513,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -527,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -541,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -555,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -569,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -583,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -597,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -611,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -625,7 +728,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -639,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>5</v>
@@ -653,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -661,16 +764,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -695,7 +798,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -709,7 +812,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>40</v>
@@ -723,7 +826,7 @@
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>40</v>
@@ -737,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>40</v>
@@ -751,7 +854,7 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -765,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>40</v>
@@ -779,7 +882,7 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>40</v>
@@ -793,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>40</v>
@@ -807,7 +910,7 @@
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>40</v>
@@ -821,7 +924,7 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>40</v>
@@ -835,7 +938,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E29">
         <v>40</v>
@@ -849,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>40</v>
@@ -863,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31">
         <v>40</v>
@@ -877,7 +980,7 @@
         <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>40</v>
@@ -885,16 +988,19 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -925,7 +1031,7 @@
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -942,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -959,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -976,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -993,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1010,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1027,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -1044,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -1061,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -1078,7 +1184,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1095,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -1112,7 +1218,7 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -1129,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>5</v>
@@ -1146,7 +1252,7 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -1154,19 +1260,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50">
         <v>40</v>
@@ -1197,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>40</v>
@@ -1214,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>40</v>
@@ -1231,7 +1337,7 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E53">
         <v>40</v>
@@ -1248,7 +1354,7 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>40</v>
@@ -1265,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -1282,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56">
         <v>40</v>
@@ -1299,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>40</v>
@@ -1316,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>40</v>
@@ -1333,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>40</v>
@@ -1350,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>40</v>
@@ -1367,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E61">
         <v>40</v>
@@ -1384,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>40</v>
@@ -1401,7 +1507,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63">
         <v>40</v>
@@ -1418,7 +1524,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>40</v>
@@ -1426,19 +1532,19 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1558,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -1469,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -1486,7 +1592,7 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E68">
         <v>5</v>
@@ -1503,7 +1609,7 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -1520,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -1537,7 +1643,7 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -1554,7 +1660,7 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>5</v>
@@ -1571,7 +1677,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -1588,7 +1694,7 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74">
         <v>5</v>
@@ -1605,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -1622,7 +1728,7 @@
         <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76">
         <v>5</v>
@@ -1639,7 +1745,7 @@
         <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E77">
         <v>5</v>
@@ -1656,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -1673,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79">
         <v>5</v>
@@ -1690,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -1698,19 +1804,19 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>40</v>
       </c>
       <c r="C81" t="s">
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,7 +1830,7 @@
         <v>20</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>40</v>
@@ -1741,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>40</v>
@@ -1758,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E84">
         <v>40</v>
@@ -1775,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>40</v>
@@ -1792,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86">
         <v>40</v>
@@ -1809,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E87">
         <v>40</v>
@@ -1826,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E88">
         <v>40</v>
@@ -1843,7 +1949,7 @@
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E89">
         <v>40</v>
@@ -1860,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90">
         <v>40</v>
@@ -1877,7 +1983,7 @@
         <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>40</v>
@@ -1894,7 +2000,7 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E92">
         <v>40</v>
@@ -1911,7 +2017,7 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E93">
         <v>40</v>
@@ -1928,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94">
         <v>40</v>
@@ -1945,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>40</v>
@@ -1962,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>40</v>
@@ -1970,19 +2076,19 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -1996,7 +2102,7 @@
         <v>21</v>
       </c>
       <c r="D98" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <v>5</v>
@@ -2013,7 +2119,7 @@
         <v>21</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -2030,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100">
         <v>5</v>
@@ -2047,7 +2153,7 @@
         <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>5</v>
@@ -2064,7 +2170,7 @@
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -2081,7 +2187,7 @@
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -2098,7 +2204,7 @@
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -2115,7 +2221,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -2132,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -2149,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -2166,7 +2272,7 @@
         <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -2183,7 +2289,7 @@
         <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -2200,7 +2306,7 @@
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110">
         <v>5</v>
@@ -2217,7 +2323,7 @@
         <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <v>5</v>
@@ -2234,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -2242,19 +2348,19 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B113">
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -2268,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>40</v>
@@ -2285,7 +2391,7 @@
         <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E115">
         <v>40</v>
@@ -2302,7 +2408,7 @@
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E116">
         <v>40</v>
@@ -2319,7 +2425,7 @@
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E117">
         <v>40</v>
@@ -2336,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E118">
         <v>40</v>
@@ -2353,7 +2459,7 @@
         <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E119">
         <v>40</v>
@@ -2370,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E120">
         <v>40</v>
@@ -2387,7 +2493,7 @@
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>40</v>
@@ -2404,7 +2510,7 @@
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E122">
         <v>40</v>
@@ -2421,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123">
         <v>40</v>
@@ -2438,7 +2544,7 @@
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E124">
         <v>40</v>
@@ -2455,7 +2561,7 @@
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <v>40</v>
@@ -2472,7 +2578,7 @@
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <v>40</v>
@@ -2489,7 +2595,7 @@
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E127">
         <v>40</v>
@@ -2506,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E128">
         <v>40</v>
@@ -2514,19 +2620,19 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="D130" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -2557,7 +2663,7 @@
         <v>22</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -2574,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E132">
         <v>5</v>
@@ -2591,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E133">
         <v>5</v>
@@ -2608,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>5</v>
@@ -2625,7 +2731,7 @@
         <v>22</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E135">
         <v>5</v>
@@ -2642,7 +2748,7 @@
         <v>22</v>
       </c>
       <c r="D136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E136">
         <v>5</v>
@@ -2659,7 +2765,7 @@
         <v>22</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>5</v>
@@ -2676,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -2693,7 +2799,7 @@
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>5</v>
@@ -2710,7 +2816,7 @@
         <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>5</v>
@@ -2727,7 +2833,7 @@
         <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -2744,7 +2850,7 @@
         <v>22</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -2761,7 +2867,7 @@
         <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E143">
         <v>5</v>
@@ -2778,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -2786,19 +2892,19 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B145">
+        <v>40</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,7 +2918,7 @@
         <v>22</v>
       </c>
       <c r="D146" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>40</v>
@@ -2829,7 +2935,7 @@
         <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E147">
         <v>40</v>
@@ -2846,7 +2952,7 @@
         <v>22</v>
       </c>
       <c r="D148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>40</v>
@@ -2863,7 +2969,7 @@
         <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E149">
         <v>40</v>
@@ -2880,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="D150" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E150">
         <v>40</v>
@@ -2897,7 +3003,7 @@
         <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E151">
         <v>40</v>
@@ -2914,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E152">
         <v>40</v>
@@ -2931,7 +3037,7 @@
         <v>22</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E153">
         <v>40</v>
@@ -2948,7 +3054,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154">
         <v>40</v>
@@ -2965,7 +3071,7 @@
         <v>22</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>40</v>
@@ -2982,7 +3088,7 @@
         <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E156">
         <v>40</v>
@@ -2999,7 +3105,7 @@
         <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E157">
         <v>40</v>
@@ -3016,7 +3122,7 @@
         <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E158">
         <v>40</v>
@@ -3033,7 +3139,7 @@
         <v>22</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159">
         <v>40</v>
@@ -3050,7 +3156,7 @@
         <v>22</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E160">
         <v>40</v>
@@ -3058,19 +3164,19 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,7 +3190,7 @@
         <v>23</v>
       </c>
       <c r="D162" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -3101,7 +3207,7 @@
         <v>23</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -3118,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -3135,7 +3241,7 @@
         <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -3152,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -3169,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E167">
         <v>5</v>
@@ -3186,7 +3292,7 @@
         <v>23</v>
       </c>
       <c r="D168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E168">
         <v>5</v>
@@ -3203,7 +3309,7 @@
         <v>23</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E169">
         <v>5</v>
@@ -3220,7 +3326,7 @@
         <v>23</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -3237,7 +3343,7 @@
         <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171">
         <v>5</v>
@@ -3254,7 +3360,7 @@
         <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -3271,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -3288,7 +3394,7 @@
         <v>23</v>
       </c>
       <c r="D174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -3305,7 +3411,7 @@
         <v>23</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -3322,7 +3428,7 @@
         <v>23</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -3330,19 +3436,19 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B177">
+        <v>40</v>
       </c>
       <c r="C177" t="s">
         <v>23</v>
       </c>
       <c r="D177" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3356,7 +3462,7 @@
         <v>23</v>
       </c>
       <c r="D178" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>40</v>
@@ -3373,7 +3479,7 @@
         <v>23</v>
       </c>
       <c r="D179" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E179">
         <v>40</v>
@@ -3390,7 +3496,7 @@
         <v>23</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>40</v>
@@ -3407,7 +3513,7 @@
         <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E181">
         <v>40</v>
@@ -3424,7 +3530,7 @@
         <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E182">
         <v>40</v>
@@ -3441,7 +3547,7 @@
         <v>23</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E183">
         <v>40</v>
@@ -3458,7 +3564,7 @@
         <v>23</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E184">
         <v>40</v>
@@ -3475,7 +3581,7 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E185">
         <v>40</v>
@@ -3492,7 +3598,7 @@
         <v>23</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E186">
         <v>40</v>
@@ -3509,7 +3615,7 @@
         <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187">
         <v>40</v>
@@ -3526,7 +3632,7 @@
         <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E188">
         <v>40</v>
@@ -3543,7 +3649,7 @@
         <v>23</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E189">
         <v>40</v>
@@ -3560,7 +3666,7 @@
         <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E190">
         <v>40</v>
@@ -3577,7 +3683,7 @@
         <v>23</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E191">
         <v>40</v>
@@ -3594,7 +3700,7 @@
         <v>23</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E192">
         <v>40</v>
@@ -3602,19 +3708,19 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>18</v>
-      </c>
-      <c r="B193">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -3628,7 +3734,7 @@
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E194">
         <v>5</v>
@@ -3645,7 +3751,7 @@
         <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -3662,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>5</v>
@@ -3679,7 +3785,7 @@
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E197">
         <v>5</v>
@@ -3696,7 +3802,7 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E198">
         <v>5</v>
@@ -3713,7 +3819,7 @@
         <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -3730,7 +3836,7 @@
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E200">
         <v>5</v>
@@ -3747,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E201">
         <v>5</v>
@@ -3764,7 +3870,7 @@
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E202">
         <v>5</v>
@@ -3781,7 +3887,7 @@
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203">
         <v>5</v>
@@ -3798,7 +3904,7 @@
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E204">
         <v>5</v>
@@ -3815,7 +3921,7 @@
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -3832,7 +3938,7 @@
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -3849,7 +3955,7 @@
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E207">
         <v>5</v>
@@ -3866,7 +3972,7 @@
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E208">
         <v>5</v>
@@ -3874,19 +3980,19 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>0</v>
-      </c>
-      <c r="B209" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B209">
+        <v>40</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,7 +4006,7 @@
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210">
         <v>40</v>
@@ -3917,7 +4023,7 @@
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E211">
         <v>40</v>
@@ -3934,7 +4040,7 @@
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E212">
         <v>40</v>
@@ -3951,7 +4057,7 @@
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E213">
         <v>40</v>
@@ -3968,7 +4074,7 @@
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E214">
         <v>40</v>
@@ -3985,7 +4091,7 @@
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E215">
         <v>40</v>
@@ -4002,7 +4108,7 @@
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E216">
         <v>40</v>
@@ -4019,7 +4125,7 @@
         <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E217">
         <v>40</v>
@@ -4036,7 +4142,7 @@
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E218">
         <v>40</v>
@@ -4053,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219">
         <v>40</v>
@@ -4070,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E220">
         <v>40</v>
@@ -4087,7 +4193,7 @@
         <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E221">
         <v>40</v>
@@ -4104,7 +4210,7 @@
         <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E222">
         <v>40</v>
@@ -4121,7 +4227,7 @@
         <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E223">
         <v>40</v>
@@ -4138,7 +4244,7 @@
         <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E224">
         <v>40</v>
@@ -4146,18 +4252,2689 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>18</v>
-      </c>
-      <c r="B225">
-        <v>40</v>
-      </c>
-      <c r="C225" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>25</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>25</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>25</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>30</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>25</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>25</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>33</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>25</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>25</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>35</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>25</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>36</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>37</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>38</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>39</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>40</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>42</v>
+      </c>
+      <c r="B241">
+        <v>40</v>
+      </c>
+      <c r="D241" t="s">
+        <v>26</v>
+      </c>
+      <c r="E241">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>42</v>
+      </c>
+      <c r="B242">
+        <v>40</v>
+      </c>
+      <c r="D242" t="s">
+        <v>27</v>
+      </c>
+      <c r="E242">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>42</v>
+      </c>
+      <c r="B243">
+        <v>40</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>42</v>
+      </c>
+      <c r="B244">
+        <v>40</v>
+      </c>
+      <c r="D244" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>42</v>
+      </c>
+      <c r="B245">
+        <v>40</v>
+      </c>
+      <c r="D245" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246">
+        <v>40</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>42</v>
+      </c>
+      <c r="B247">
+        <v>40</v>
+      </c>
+      <c r="D247" t="s">
+        <v>32</v>
+      </c>
+      <c r="E247">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>42</v>
+      </c>
+      <c r="B248">
+        <v>40</v>
+      </c>
+      <c r="D248" t="s">
+        <v>33</v>
+      </c>
+      <c r="E248">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>42</v>
+      </c>
+      <c r="B249">
+        <v>40</v>
+      </c>
+      <c r="D249" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>42</v>
+      </c>
+      <c r="B250">
+        <v>40</v>
+      </c>
+      <c r="D250" t="s">
+        <v>35</v>
+      </c>
+      <c r="E250">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>42</v>
+      </c>
+      <c r="B251">
+        <v>40</v>
+      </c>
+      <c r="D251" t="s">
+        <v>36</v>
+      </c>
+      <c r="E251">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252">
+        <v>40</v>
+      </c>
+      <c r="D252" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>42</v>
+      </c>
+      <c r="B253">
+        <v>40</v>
+      </c>
+      <c r="D253" t="s">
+        <v>38</v>
+      </c>
+      <c r="E253">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254">
+        <v>40</v>
+      </c>
+      <c r="D254" t="s">
+        <v>39</v>
+      </c>
+      <c r="E254">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255">
+        <v>40</v>
+      </c>
+      <c r="D255" t="s">
+        <v>40</v>
+      </c>
+      <c r="E255">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>42</v>
+      </c>
+      <c r="B256">
+        <v>40</v>
+      </c>
+      <c r="D256" t="s">
+        <v>41</v>
+      </c>
+      <c r="E256">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>26</v>
+      </c>
+      <c r="E257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>43</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>27</v>
+      </c>
+      <c r="E258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>43</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>43</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>30</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>31</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>43</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>32</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>33</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>43</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>43</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>35</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>43</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>36</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>43</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>37</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>43</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>38</v>
+      </c>
+      <c r="E269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>43</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>39</v>
+      </c>
+      <c r="E270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>43</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>40</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>43</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>41</v>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>44</v>
+      </c>
+      <c r="B273">
+        <v>40</v>
+      </c>
+      <c r="D273" t="s">
+        <v>26</v>
+      </c>
+      <c r="E273">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>44</v>
+      </c>
+      <c r="B274">
+        <v>40</v>
+      </c>
+      <c r="D274" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>44</v>
+      </c>
+      <c r="B275">
+        <v>40</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>44</v>
+      </c>
+      <c r="B276">
+        <v>40</v>
+      </c>
+      <c r="D276" t="s">
+        <v>29</v>
+      </c>
+      <c r="E276">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>44</v>
+      </c>
+      <c r="B277">
+        <v>40</v>
+      </c>
+      <c r="D277" t="s">
+        <v>30</v>
+      </c>
+      <c r="E277">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278">
+        <v>40</v>
+      </c>
+      <c r="D278" t="s">
+        <v>31</v>
+      </c>
+      <c r="E278">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>44</v>
+      </c>
+      <c r="B279">
+        <v>40</v>
+      </c>
+      <c r="D279" t="s">
+        <v>32</v>
+      </c>
+      <c r="E279">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280">
+        <v>40</v>
+      </c>
+      <c r="D280" t="s">
+        <v>33</v>
+      </c>
+      <c r="E280">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>44</v>
+      </c>
+      <c r="B281">
+        <v>40</v>
+      </c>
+      <c r="D281" t="s">
+        <v>34</v>
+      </c>
+      <c r="E281">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282">
+        <v>40</v>
+      </c>
+      <c r="D282" t="s">
+        <v>35</v>
+      </c>
+      <c r="E282">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283">
+        <v>40</v>
+      </c>
+      <c r="D283" t="s">
+        <v>36</v>
+      </c>
+      <c r="E283">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284">
+        <v>40</v>
+      </c>
+      <c r="D284" t="s">
+        <v>37</v>
+      </c>
+      <c r="E284">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285">
+        <v>40</v>
+      </c>
+      <c r="D285" t="s">
+        <v>38</v>
+      </c>
+      <c r="E285">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>44</v>
+      </c>
+      <c r="B286">
+        <v>40</v>
+      </c>
+      <c r="D286" t="s">
+        <v>39</v>
+      </c>
+      <c r="E286">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>44</v>
+      </c>
+      <c r="B287">
+        <v>40</v>
+      </c>
+      <c r="D287" t="s">
+        <v>40</v>
+      </c>
+      <c r="E287">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>44</v>
+      </c>
+      <c r="B288">
+        <v>40</v>
+      </c>
+      <c r="D288" t="s">
+        <v>41</v>
+      </c>
+      <c r="E288">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>26</v>
+      </c>
+      <c r="E289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>27</v>
+      </c>
+      <c r="E290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>29</v>
+      </c>
+      <c r="E292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>31</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>32</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>33</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>34</v>
+      </c>
+      <c r="E297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>35</v>
+      </c>
+      <c r="E298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>36</v>
+      </c>
+      <c r="E299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>37</v>
+      </c>
+      <c r="E300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>45</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>38</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>39</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>45</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>40</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>45</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>41</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>46</v>
+      </c>
+      <c r="B305">
+        <v>40</v>
+      </c>
+      <c r="D305" t="s">
+        <v>26</v>
+      </c>
+      <c r="E305">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>46</v>
+      </c>
+      <c r="B306">
+        <v>40</v>
+      </c>
+      <c r="D306" t="s">
+        <v>27</v>
+      </c>
+      <c r="E306">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>46</v>
+      </c>
+      <c r="B307">
+        <v>40</v>
+      </c>
+      <c r="D307" t="s">
+        <v>28</v>
+      </c>
+      <c r="E307">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>46</v>
+      </c>
+      <c r="B308">
+        <v>40</v>
+      </c>
+      <c r="D308" t="s">
+        <v>29</v>
+      </c>
+      <c r="E308">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>46</v>
+      </c>
+      <c r="B309">
+        <v>40</v>
+      </c>
+      <c r="D309" t="s">
+        <v>30</v>
+      </c>
+      <c r="E309">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>46</v>
+      </c>
+      <c r="B310">
+        <v>40</v>
+      </c>
+      <c r="D310" t="s">
+        <v>31</v>
+      </c>
+      <c r="E310">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>46</v>
+      </c>
+      <c r="B311">
+        <v>40</v>
+      </c>
+      <c r="D311" t="s">
+        <v>32</v>
+      </c>
+      <c r="E311">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>46</v>
+      </c>
+      <c r="B312">
+        <v>40</v>
+      </c>
+      <c r="D312" t="s">
+        <v>33</v>
+      </c>
+      <c r="E312">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>46</v>
+      </c>
+      <c r="B313">
+        <v>40</v>
+      </c>
+      <c r="D313" t="s">
+        <v>34</v>
+      </c>
+      <c r="E313">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>46</v>
+      </c>
+      <c r="B314">
+        <v>40</v>
+      </c>
+      <c r="D314" t="s">
+        <v>35</v>
+      </c>
+      <c r="E314">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>46</v>
+      </c>
+      <c r="B315">
+        <v>40</v>
+      </c>
+      <c r="D315" t="s">
+        <v>36</v>
+      </c>
+      <c r="E315">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>46</v>
+      </c>
+      <c r="B316">
+        <v>40</v>
+      </c>
+      <c r="D316" t="s">
+        <v>37</v>
+      </c>
+      <c r="E316">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>46</v>
+      </c>
+      <c r="B317">
+        <v>40</v>
+      </c>
+      <c r="D317" t="s">
+        <v>38</v>
+      </c>
+      <c r="E317">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>46</v>
+      </c>
+      <c r="B318">
+        <v>40</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>46</v>
+      </c>
+      <c r="B319">
+        <v>40</v>
+      </c>
+      <c r="D319" t="s">
+        <v>40</v>
+      </c>
+      <c r="E319">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>46</v>
+      </c>
+      <c r="B320">
+        <v>40</v>
+      </c>
+      <c r="D320" t="s">
+        <v>41</v>
+      </c>
+      <c r="E320">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>25</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>47</v>
+      </c>
+      <c r="E321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>25</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>48</v>
+      </c>
+      <c r="E322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>25</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>49</v>
+      </c>
+      <c r="E323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>25</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>50</v>
+      </c>
+      <c r="E324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>51</v>
+      </c>
+      <c r="E325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>25</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>52</v>
+      </c>
+      <c r="E326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>53</v>
+      </c>
+      <c r="E327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>25</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>54</v>
+      </c>
+      <c r="E328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>55</v>
+      </c>
+      <c r="E329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>25</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>56</v>
+      </c>
+      <c r="E330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>57</v>
+      </c>
+      <c r="E331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>58</v>
+      </c>
+      <c r="E332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>25</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>59</v>
+      </c>
+      <c r="E333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>25</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>60</v>
+      </c>
+      <c r="E334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>61</v>
+      </c>
+      <c r="E335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>25</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>62</v>
+      </c>
+      <c r="E336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>42</v>
+      </c>
+      <c r="B337">
+        <v>40</v>
+      </c>
+      <c r="D337" t="s">
+        <v>47</v>
+      </c>
+      <c r="E337">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>42</v>
+      </c>
+      <c r="B338">
+        <v>40</v>
+      </c>
+      <c r="D338" t="s">
+        <v>48</v>
+      </c>
+      <c r="E338">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>42</v>
+      </c>
+      <c r="B339">
+        <v>40</v>
+      </c>
+      <c r="D339" t="s">
+        <v>49</v>
+      </c>
+      <c r="E339">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>42</v>
+      </c>
+      <c r="B340">
+        <v>40</v>
+      </c>
+      <c r="D340" t="s">
+        <v>50</v>
+      </c>
+      <c r="E340">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>42</v>
+      </c>
+      <c r="B341">
+        <v>40</v>
+      </c>
+      <c r="D341" t="s">
+        <v>51</v>
+      </c>
+      <c r="E341">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>42</v>
+      </c>
+      <c r="B342">
+        <v>40</v>
+      </c>
+      <c r="D342" t="s">
+        <v>52</v>
+      </c>
+      <c r="E342">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>42</v>
+      </c>
+      <c r="B343">
+        <v>40</v>
+      </c>
+      <c r="D343" t="s">
+        <v>53</v>
+      </c>
+      <c r="E343">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>42</v>
+      </c>
+      <c r="B344">
+        <v>40</v>
+      </c>
+      <c r="D344" t="s">
+        <v>54</v>
+      </c>
+      <c r="E344">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>42</v>
+      </c>
+      <c r="B345">
+        <v>40</v>
+      </c>
+      <c r="D345" t="s">
+        <v>55</v>
+      </c>
+      <c r="E345">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>42</v>
+      </c>
+      <c r="B346">
+        <v>40</v>
+      </c>
+      <c r="D346" t="s">
+        <v>56</v>
+      </c>
+      <c r="E346">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>42</v>
+      </c>
+      <c r="B347">
+        <v>40</v>
+      </c>
+      <c r="D347" t="s">
+        <v>57</v>
+      </c>
+      <c r="E347">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>42</v>
+      </c>
+      <c r="B348">
+        <v>40</v>
+      </c>
+      <c r="D348" t="s">
+        <v>58</v>
+      </c>
+      <c r="E348">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>42</v>
+      </c>
+      <c r="B349">
+        <v>40</v>
+      </c>
+      <c r="D349" t="s">
+        <v>59</v>
+      </c>
+      <c r="E349">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>42</v>
+      </c>
+      <c r="B350">
+        <v>40</v>
+      </c>
+      <c r="D350" t="s">
+        <v>60</v>
+      </c>
+      <c r="E350">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>42</v>
+      </c>
+      <c r="B351">
+        <v>40</v>
+      </c>
+      <c r="D351" t="s">
+        <v>61</v>
+      </c>
+      <c r="E351">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>42</v>
+      </c>
+      <c r="B352">
+        <v>40</v>
+      </c>
+      <c r="D352" t="s">
+        <v>62</v>
+      </c>
+      <c r="E352">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>43</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>47</v>
+      </c>
+      <c r="E353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>43</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>48</v>
+      </c>
+      <c r="E354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>43</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>49</v>
+      </c>
+      <c r="E355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>43</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>50</v>
+      </c>
+      <c r="E356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>43</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>51</v>
+      </c>
+      <c r="E357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>43</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>52</v>
+      </c>
+      <c r="E358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>43</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>53</v>
+      </c>
+      <c r="E359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>43</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>54</v>
+      </c>
+      <c r="E360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>43</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>55</v>
+      </c>
+      <c r="E361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>43</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>56</v>
+      </c>
+      <c r="E362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>43</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>57</v>
+      </c>
+      <c r="E363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>43</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>58</v>
+      </c>
+      <c r="E364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>43</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>59</v>
+      </c>
+      <c r="E365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>43</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>60</v>
+      </c>
+      <c r="E366">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>43</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>61</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>43</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>62</v>
+      </c>
+      <c r="E368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>44</v>
+      </c>
+      <c r="B369">
+        <v>40</v>
+      </c>
+      <c r="D369" t="s">
+        <v>47</v>
+      </c>
+      <c r="E369">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>44</v>
+      </c>
+      <c r="B370">
+        <v>40</v>
+      </c>
+      <c r="D370" t="s">
+        <v>48</v>
+      </c>
+      <c r="E370">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>44</v>
+      </c>
+      <c r="B371">
+        <v>40</v>
+      </c>
+      <c r="D371" t="s">
+        <v>49</v>
+      </c>
+      <c r="E371">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>44</v>
+      </c>
+      <c r="B372">
+        <v>40</v>
+      </c>
+      <c r="D372" t="s">
+        <v>50</v>
+      </c>
+      <c r="E372">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+      <c r="B373">
+        <v>40</v>
+      </c>
+      <c r="D373" t="s">
+        <v>51</v>
+      </c>
+      <c r="E373">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>44</v>
+      </c>
+      <c r="B374">
+        <v>40</v>
+      </c>
+      <c r="D374" t="s">
+        <v>52</v>
+      </c>
+      <c r="E374">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>44</v>
+      </c>
+      <c r="B375">
+        <v>40</v>
+      </c>
+      <c r="D375" t="s">
+        <v>53</v>
+      </c>
+      <c r="E375">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>44</v>
+      </c>
+      <c r="B376">
+        <v>40</v>
+      </c>
+      <c r="D376" t="s">
+        <v>54</v>
+      </c>
+      <c r="E376">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>44</v>
+      </c>
+      <c r="B377">
+        <v>40</v>
+      </c>
+      <c r="D377" t="s">
+        <v>55</v>
+      </c>
+      <c r="E377">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>44</v>
+      </c>
+      <c r="B378">
+        <v>40</v>
+      </c>
+      <c r="D378" t="s">
+        <v>56</v>
+      </c>
+      <c r="E378">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>44</v>
+      </c>
+      <c r="B379">
+        <v>40</v>
+      </c>
+      <c r="D379" t="s">
+        <v>57</v>
+      </c>
+      <c r="E379">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>44</v>
+      </c>
+      <c r="B380">
+        <v>40</v>
+      </c>
+      <c r="D380" t="s">
+        <v>58</v>
+      </c>
+      <c r="E380">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>44</v>
+      </c>
+      <c r="B381">
+        <v>40</v>
+      </c>
+      <c r="D381" t="s">
+        <v>59</v>
+      </c>
+      <c r="E381">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>44</v>
+      </c>
+      <c r="B382">
+        <v>40</v>
+      </c>
+      <c r="D382" t="s">
+        <v>60</v>
+      </c>
+      <c r="E382">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>44</v>
+      </c>
+      <c r="B383">
+        <v>40</v>
+      </c>
+      <c r="D383" t="s">
+        <v>61</v>
+      </c>
+      <c r="E383">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>44</v>
+      </c>
+      <c r="B384">
+        <v>40</v>
+      </c>
+      <c r="D384" t="s">
+        <v>62</v>
+      </c>
+      <c r="E384">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>45</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>47</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>45</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>48</v>
+      </c>
+      <c r="E386">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>45</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>49</v>
+      </c>
+      <c r="E387">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>45</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>50</v>
+      </c>
+      <c r="E388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>51</v>
+      </c>
+      <c r="E389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>45</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>52</v>
+      </c>
+      <c r="E390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>45</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>53</v>
+      </c>
+      <c r="E391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>45</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>54</v>
+      </c>
+      <c r="E392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>45</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>55</v>
+      </c>
+      <c r="E393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>45</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1</v>
+      </c>
+      <c r="D394" t="s">
+        <v>56</v>
+      </c>
+      <c r="E394">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>45</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>57</v>
+      </c>
+      <c r="E395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>45</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>58</v>
+      </c>
+      <c r="E396">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>45</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>59</v>
+      </c>
+      <c r="E397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>45</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>60</v>
+      </c>
+      <c r="E398">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>45</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>61</v>
+      </c>
+      <c r="E399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>45</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>62</v>
+      </c>
+      <c r="E400">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>46</v>
+      </c>
+      <c r="B401">
+        <v>40</v>
+      </c>
+      <c r="D401" t="s">
+        <v>47</v>
+      </c>
+      <c r="E401">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>46</v>
+      </c>
+      <c r="B402">
+        <v>40</v>
+      </c>
+      <c r="D402" t="s">
+        <v>48</v>
+      </c>
+      <c r="E402">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>46</v>
+      </c>
+      <c r="B403">
+        <v>40</v>
+      </c>
+      <c r="D403" t="s">
+        <v>49</v>
+      </c>
+      <c r="E403">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>46</v>
+      </c>
+      <c r="B404">
+        <v>40</v>
+      </c>
+      <c r="D404" t="s">
+        <v>50</v>
+      </c>
+      <c r="E404">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>46</v>
+      </c>
+      <c r="B405">
+        <v>40</v>
+      </c>
+      <c r="D405" t="s">
+        <v>51</v>
+      </c>
+      <c r="E405">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>46</v>
+      </c>
+      <c r="B406">
+        <v>40</v>
+      </c>
+      <c r="D406" t="s">
+        <v>52</v>
+      </c>
+      <c r="E406">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>46</v>
+      </c>
+      <c r="B407">
+        <v>40</v>
+      </c>
+      <c r="D407" t="s">
+        <v>53</v>
+      </c>
+      <c r="E407">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>46</v>
+      </c>
+      <c r="B408">
+        <v>40</v>
+      </c>
+      <c r="D408" t="s">
+        <v>54</v>
+      </c>
+      <c r="E408">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>46</v>
+      </c>
+      <c r="B409">
+        <v>40</v>
+      </c>
+      <c r="D409" t="s">
+        <v>55</v>
+      </c>
+      <c r="E409">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>46</v>
+      </c>
+      <c r="B410">
+        <v>40</v>
+      </c>
+      <c r="D410" t="s">
+        <v>56</v>
+      </c>
+      <c r="E410">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>46</v>
+      </c>
+      <c r="B411">
+        <v>40</v>
+      </c>
+      <c r="D411" t="s">
+        <v>57</v>
+      </c>
+      <c r="E411">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>46</v>
+      </c>
+      <c r="B412">
+        <v>40</v>
+      </c>
+      <c r="D412" t="s">
+        <v>58</v>
+      </c>
+      <c r="E412">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>46</v>
+      </c>
+      <c r="B413">
+        <v>40</v>
+      </c>
+      <c r="D413" t="s">
+        <v>59</v>
+      </c>
+      <c r="E413">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>46</v>
+      </c>
+      <c r="B414">
+        <v>40</v>
+      </c>
+      <c r="D414" t="s">
+        <v>60</v>
+      </c>
+      <c r="E414">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>46</v>
+      </c>
+      <c r="B415">
+        <v>40</v>
+      </c>
+      <c r="D415" t="s">
+        <v>61</v>
+      </c>
+      <c r="E415">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>46</v>
+      </c>
+      <c r="B416">
+        <v>40</v>
+      </c>
+      <c r="D416" t="s">
+        <v>62</v>
+      </c>
+      <c r="E416">
         <v>40</v>
       </c>
     </row>
